--- a/HTML5/Maths HTML/MATHS-HTML.xlsx
+++ b/HTML5/Maths HTML/MATHS-HTML.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>SNO</t>
   </si>
@@ -40,6 +40,21 @@
   </si>
   <si>
     <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>Area of perimeter</t>
+  </si>
+  <si>
+    <t>PARTIAL</t>
+  </si>
+  <si>
+    <t>Area Shapes</t>
+  </si>
+  <si>
+    <t>Data handling class 6</t>
+  </si>
+  <si>
+    <t>Quadrilaterals 2</t>
   </si>
 </sst>
 </file>
@@ -385,16 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -442,6 +457,50 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>

--- a/HTML5/Maths HTML/MATHS-HTML.xlsx
+++ b/HTML5/Maths HTML/MATHS-HTML.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>SNO</t>
   </si>
@@ -55,6 +55,33 @@
   </si>
   <si>
     <t>Quadrilaterals 2</t>
+  </si>
+  <si>
+    <t>Area of plane figures</t>
+  </si>
+  <si>
+    <t>Class7-Simple Equations</t>
+  </si>
+  <si>
+    <t>Factorization</t>
+  </si>
+  <si>
+    <t>Playing with Numbers</t>
+  </si>
+  <si>
+    <t>Smaller and Bigger lengths</t>
+  </si>
+  <si>
+    <t>Visualising 2d 3d 8th class</t>
+  </si>
+  <si>
+    <t>Visualising 2d 3d with 7th class</t>
+  </si>
+  <si>
+    <t>visualizing 2d 3d class6</t>
+  </si>
+  <si>
+    <t>duplicate</t>
   </si>
 </sst>
 </file>
@@ -400,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -468,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,7 +527,86 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
         <v>7</v>
       </c>
     </row>

--- a/HTML5/Maths HTML/MATHS-HTML.xlsx
+++ b/HTML5/Maths HTML/MATHS-HTML.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\githtmls\trunk\HTML5\Maths HTML\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>SNO</t>
   </si>
@@ -82,12 +87,33 @@
   </si>
   <si>
     <t>duplicate</t>
+  </si>
+  <si>
+    <t>9thclass quadrilaterals</t>
+  </si>
+  <si>
+    <t>class7 integers</t>
+  </si>
+  <si>
+    <t>maps and routes</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>C8_L14_Surfaceareaofcubecuboid</t>
+  </si>
+  <si>
+    <t>Class8L10Compoundproportions</t>
+  </si>
+  <si>
+    <t>Diret and indirect proportions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,6 +162,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -183,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,7 +247,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,6 +637,62 @@
       </c>
       <c r="C16" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/HTML5/Maths HTML/MATHS-HTML.xlsx
+++ b/HTML5/Maths HTML/MATHS-HTML.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>SNO</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Diret and indirect proportions</t>
+  </si>
+  <si>
+    <t>C6_L11_Ratioandproportions</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,6 +696,14 @@
       </c>
       <c r="B23" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/HTML5/Maths HTML/MATHS-HTML.xlsx
+++ b/HTML5/Maths HTML/MATHS-HTML.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>SNO</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>C6_L11_Ratioandproportions</t>
+  </si>
+  <si>
+    <t>mc4l15halvesthatlookalike</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,6 +707,14 @@
       </c>
       <c r="B24" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/HTML5/Maths HTML/MATHS-HTML.xlsx
+++ b/HTML5/Maths HTML/MATHS-HTML.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\githtmls\trunk\HTML5\Maths HTML\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$30</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>SNO</t>
   </si>
@@ -50,9 +48,6 @@
     <t>Area of perimeter</t>
   </si>
   <si>
-    <t>PARTIAL</t>
-  </si>
-  <si>
     <t>Area Shapes</t>
   </si>
   <si>
@@ -114,12 +109,27 @@
   </si>
   <si>
     <t>mc4l15halvesthatlookalike</t>
+  </si>
+  <si>
+    <t>Borders and Boundaries</t>
+  </si>
+  <si>
+    <t>C6_L11_Ratios and proportion</t>
+  </si>
+  <si>
+    <t>C8_L14_Surface area of cube and cuboid</t>
+  </si>
+  <si>
+    <t>c9_l10_Surface area and volume</t>
+  </si>
+  <si>
+    <t>Polynomials and factorisation 9th class</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,15 +472,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -489,7 +500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -500,7 +511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -511,7 +522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -522,7 +533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -533,26 +544,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -560,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,10 +579,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -579,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -587,137 +598,206 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>30</v>
       </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D30">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/HTML5/Maths HTML/MATHS-HTML.xlsx
+++ b/HTML5/Maths HTML/MATHS-HTML.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$29</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>SNO</t>
   </si>
@@ -48,6 +48,9 @@
     <t>Area of perimeter</t>
   </si>
   <si>
+    <t>PARTIAL</t>
+  </si>
+  <si>
     <t>Area Shapes</t>
   </si>
   <si>
@@ -114,9 +117,6 @@
     <t>Borders and Boundaries</t>
   </si>
   <si>
-    <t>C6_L11_Ratios and proportion</t>
-  </si>
-  <si>
     <t>C8_L14_Surface area of cube and cuboid</t>
   </si>
   <si>
@@ -124,16 +124,26 @@
   </si>
   <si>
     <t>Polynomials and factorisation 9th class</t>
+  </si>
+  <si>
+    <t>layout pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,9 +175,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,17 +484,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -549,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -560,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -571,18 +582,18 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,7 +601,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +612,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -606,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -617,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -628,7 +645,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -639,7 +656,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -650,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -661,7 +678,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -672,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -683,7 +700,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -691,7 +711,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -699,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -710,7 +730,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -721,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,7 +749,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -737,7 +760,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -748,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -756,49 +779,47 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
       <c r="B29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C29" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D30">
+  <autoFilter ref="A1:D29">
     <filterColumn colId="2">
-      <filters blank="1"/>
+      <filters>
+        <filter val="PARTIAL"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/HTML5/Maths HTML/MATHS-HTML.xlsx
+++ b/HTML5/Maths HTML/MATHS-HTML.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>SNO</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>layout pending</t>
+  </si>
+  <si>
+    <t>mc6l8datahandling</t>
+  </si>
+  <si>
+    <t>mc7l5Triangle properties</t>
   </si>
 </sst>
 </file>
@@ -483,11 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,7 +527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -533,7 +538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -544,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -555,7 +560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -566,7 +571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -586,7 +591,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -618,7 +623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -629,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -640,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -651,9 +656,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -662,9 +667,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -673,9 +678,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -684,9 +689,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -697,7 +702,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -714,7 +719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -725,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -743,6 +748,9 @@
       <c r="B23" t="s">
         <v>25</v>
       </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -755,7 +763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -766,7 +774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -779,7 +787,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
@@ -790,7 +798,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -799,9 +807,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -810,14 +818,27 @@
         <v>7</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D29">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="PARTIAL"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D29"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
